--- a/data/Fig R4 Data_SB_AMP_THD_2022_02_01.xlsx
+++ b/data/Fig R4 Data_SB_AMP_THD_2022_02_01.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20406"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053B0539-EA54-4BDD-8394-878F04A14647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D057FF0-18F3-43CE-95CD-4F824A838EE0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="896" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plots" sheetId="5" r:id="rId1"/>
@@ -6827,11 +6827,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W25" sqref="W25"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6842,28 +6842,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -6874,7 +6872,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -6885,7 +6883,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -6896,7 +6894,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -6907,7 +6905,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -6918,7 +6916,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>50</v>
       </c>
@@ -6929,7 +6927,7 @@
         <v>-140</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>80000</v>
       </c>
@@ -6940,7 +6938,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -6951,7 +6949,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -6962,7 +6960,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -6973,7 +6971,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -6984,7 +6982,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1000</v>
       </c>
@@ -6995,7 +6993,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -7027,7 +7025,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>50</v>
       </c>
@@ -7059,7 +7057,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>57.467869694219999</v>
       </c>
@@ -7091,7 +7089,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>66.051120943840004</v>
       </c>
@@ -7123,7 +7121,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>75.916344231159997</v>
       </c>
@@ -7155,7 +7153,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>87.255011558769993</v>
       </c>
@@ -7187,7 +7185,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>100.2871926885</v>
       </c>
@@ -7219,7 +7217,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>115.26582642850001</v>
       </c>
@@ -7251,7 +7249,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>132.4816298678</v>
       </c>
@@ -7283,7 +7281,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>152.26874084240001</v>
       </c>
@@ -7315,7 +7313,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>175.0112031447</v>
       </c>
@@ -7347,7 +7345,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>201.15042034699999</v>
       </c>
@@ -7379,7 +7377,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>231.1937229088</v>
       </c>
@@ -7411,7 +7409,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>265.72421484490002</v>
       </c>
@@ -7443,7 +7441,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>305.4120910661</v>
       </c>
@@ -7475,7 +7473,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>351.02764504850001</v>
       </c>
@@ -7507,7 +7505,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>403.4562192944</v>
       </c>
@@ -7539,7 +7537,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>463.71538875469997</v>
       </c>
@@ -7571,7 +7569,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>532.97471072320002</v>
       </c>
@@ -7603,7 +7601,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>612.57842452320006</v>
       </c>
@@ -7635,7 +7633,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>704.07154155980004</v>
       </c>
@@ -7667,7 +7665,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>809.22983211539997</v>
       </c>
@@ -7699,7 +7697,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>930.09429089369996</v>
       </c>
@@ -7731,7 +7729,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>1069.010750248</v>
       </c>
@@ -7763,7 +7761,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1228.67540994</v>
       </c>
@@ -7795,7 +7793,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1412.1871670989999</v>
       </c>
@@ -7827,7 +7825,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1623.107762053</v>
       </c>
@@ -7859,7 +7857,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1865.5309073870001</v>
       </c>
@@ -7891,7 +7889,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>2144.1617419260001</v>
       </c>
@@ -7923,7 +7921,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>2464.4081517660002</v>
       </c>
@@ -7955,7 +7953,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>2832.4857307819998</v>
       </c>
@@ -7987,7 +7985,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>3255.538417747</v>
       </c>
@@ -8019,7 +8017,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>3741.7771515119998</v>
       </c>
@@ -8051,7 +8049,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>4300.6392353580004</v>
       </c>
@@ -8083,7 +8081,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>4942.9715035890003</v>
       </c>
@@ -8115,7 +8113,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>5681.2408454099996</v>
       </c>
@@ -8147,7 +8145,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>6529.7761721099996</v>
       </c>
@@ -8179,7 +8177,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>7505.0465238249999</v>
       </c>
@@ -8211,7 +8209,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>8625.9807136060008</v>
       </c>
@@ -8243,7 +8241,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>9914.3347126869994</v>
       </c>
@@ -8275,7 +8273,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>11395.11390747</v>
       </c>
@@ -8307,7 +8305,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>13097.058423709999</v>
       </c>
@@ -8339,7 +8337,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>15053.20093743</v>
       </c>
@@ -8371,7 +8369,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>17301.50779906</v>
       </c>
@@ -8403,7 +8401,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>19885.6159142</v>
       </c>
@@ -8435,7 +8433,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>22855.67968293</v>
       </c>
@@ -8467,7 +8465,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>26269.34443583</v>
       </c>
@@ -8499,7 +8497,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>30192.865259819999</v>
       </c>
@@ -8531,7 +8529,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>34702.392928929999</v>
       </c>
@@ -8563,7 +8561,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>39885.451898359999</v>
       </c>
@@ -8595,7 +8593,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>45842.639047800003</v>
       </c>
@@ -8627,7 +8625,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>52689.576144760002</v>
       </c>
@@ -8659,7 +8657,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>60559.153922619997</v>
       </c>
@@ -8691,7 +8689,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>69604.111328350002</v>
       </c>
@@ -8723,7 +8721,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>80000</v>
       </c>
@@ -8768,24 +8766,24 @@
       <selection sqref="A1:K70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -8796,7 +8794,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -8807,7 +8805,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -8818,7 +8816,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -8829,7 +8827,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -8840,7 +8838,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>50</v>
       </c>
@@ -8851,7 +8849,7 @@
         <v>-140</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>80000</v>
       </c>
@@ -8862,7 +8860,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -8873,7 +8871,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -8884,7 +8882,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -8895,7 +8893,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -8906,7 +8904,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1000</v>
       </c>
@@ -8917,7 +8915,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -8949,7 +8947,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>50</v>
       </c>
@@ -8981,7 +8979,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>57.467869694219999</v>
       </c>
@@ -9013,7 +9011,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>66.051120943840004</v>
       </c>
@@ -9045,7 +9043,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>75.916344231159997</v>
       </c>
@@ -9077,7 +9075,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>87.255011558769993</v>
       </c>
@@ -9109,7 +9107,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>100.2871926885</v>
       </c>
@@ -9141,7 +9139,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>115.26582642850001</v>
       </c>
@@ -9173,7 +9171,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>132.4816298678</v>
       </c>
@@ -9205,7 +9203,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>152.26874084240001</v>
       </c>
@@ -9237,7 +9235,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>175.0112031447</v>
       </c>
@@ -9269,7 +9267,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>201.15042034699999</v>
       </c>
@@ -9301,7 +9299,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>231.1937229088</v>
       </c>
@@ -9333,7 +9331,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>265.72421484490002</v>
       </c>
@@ -9365,7 +9363,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>305.4120910661</v>
       </c>
@@ -9397,7 +9395,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>351.02764504850001</v>
       </c>
@@ -9429,7 +9427,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>403.4562192944</v>
       </c>
@@ -9461,7 +9459,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>463.71538875469997</v>
       </c>
@@ -9493,7 +9491,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>532.97471072320002</v>
       </c>
@@ -9525,7 +9523,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>612.57842452320006</v>
       </c>
@@ -9557,7 +9555,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>704.07154155980004</v>
       </c>
@@ -9589,7 +9587,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>809.22983211539997</v>
       </c>
@@ -9621,7 +9619,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>930.09429089369996</v>
       </c>
@@ -9653,7 +9651,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>1069.010750248</v>
       </c>
@@ -9685,7 +9683,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1228.67540994</v>
       </c>
@@ -9717,7 +9715,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1412.1871670989999</v>
       </c>
@@ -9749,7 +9747,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1623.107762053</v>
       </c>
@@ -9781,7 +9779,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1865.5309073870001</v>
       </c>
@@ -9813,7 +9811,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>2144.1617419260001</v>
       </c>
@@ -9845,7 +9843,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>2464.4081517660002</v>
       </c>
@@ -9877,7 +9875,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>2832.4857307819998</v>
       </c>
@@ -9909,7 +9907,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>3255.538417747</v>
       </c>
@@ -9941,7 +9939,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>3741.7771515119998</v>
       </c>
@@ -9973,7 +9971,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>4300.6392353580004</v>
       </c>
@@ -10005,7 +10003,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>4942.9715035890003</v>
       </c>
@@ -10037,7 +10035,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>5681.2408454099996</v>
       </c>
@@ -10069,7 +10067,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>6529.7761721099996</v>
       </c>
@@ -10101,7 +10099,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>7505.0465238249999</v>
       </c>
@@ -10133,7 +10131,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>8625.9807136060008</v>
       </c>
@@ -10165,7 +10163,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>9914.3347126869994</v>
       </c>
@@ -10197,7 +10195,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>11395.11390747</v>
       </c>
@@ -10229,7 +10227,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>13097.058423709999</v>
       </c>
@@ -10261,7 +10259,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>15053.20093743</v>
       </c>
@@ -10293,7 +10291,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>17301.50779906</v>
       </c>
@@ -10325,7 +10323,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>19885.6159142</v>
       </c>
@@ -10357,7 +10355,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>22855.67968293</v>
       </c>
@@ -10389,7 +10387,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>26269.34443583</v>
       </c>
@@ -10421,7 +10419,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>30192.865259819999</v>
       </c>
@@ -10453,7 +10451,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>34702.392928929999</v>
       </c>
@@ -10485,7 +10483,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>39885.451898359999</v>
       </c>
@@ -10517,7 +10515,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>45842.639047800003</v>
       </c>
@@ -10549,7 +10547,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>52689.576144760002</v>
       </c>
@@ -10581,7 +10579,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>60559.153922619997</v>
       </c>
@@ -10613,7 +10611,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>69604.111328350002</v>
       </c>
@@ -10645,7 +10643,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>80000</v>
       </c>
@@ -10690,24 +10688,24 @@
       <selection sqref="A1:K70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -10718,7 +10716,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -10729,7 +10727,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -10740,7 +10738,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -10751,7 +10749,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -10762,7 +10760,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>50</v>
       </c>
@@ -10773,7 +10771,7 @@
         <v>-140</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>80000</v>
       </c>
@@ -10784,7 +10782,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -10795,7 +10793,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -10806,7 +10804,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -10817,7 +10815,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -10828,7 +10826,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1000</v>
       </c>
@@ -10839,7 +10837,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -10871,7 +10869,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>50</v>
       </c>
@@ -10903,7 +10901,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>57.467869694219999</v>
       </c>
@@ -10935,7 +10933,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>66.051120943840004</v>
       </c>
@@ -10967,7 +10965,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>75.916344231159997</v>
       </c>
@@ -10999,7 +10997,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>87.255011558769993</v>
       </c>
@@ -11031,7 +11029,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>100.2871926885</v>
       </c>
@@ -11063,7 +11061,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>115.26582642850001</v>
       </c>
@@ -11095,7 +11093,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>132.4816298678</v>
       </c>
@@ -11127,7 +11125,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>152.26874084240001</v>
       </c>
@@ -11159,7 +11157,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>175.0112031447</v>
       </c>
@@ -11191,7 +11189,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>201.15042034699999</v>
       </c>
@@ -11223,7 +11221,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>231.1937229088</v>
       </c>
@@ -11255,7 +11253,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>265.72421484490002</v>
       </c>
@@ -11287,7 +11285,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>305.4120910661</v>
       </c>
@@ -11319,7 +11317,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>351.02764504850001</v>
       </c>
@@ -11351,7 +11349,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>403.4562192944</v>
       </c>
@@ -11383,7 +11381,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>463.71538875469997</v>
       </c>
@@ -11415,7 +11413,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>532.97471072320002</v>
       </c>
@@ -11447,7 +11445,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>612.57842452320006</v>
       </c>
@@ -11479,7 +11477,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>704.07154155980004</v>
       </c>
@@ -11511,7 +11509,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>809.22983211539997</v>
       </c>
@@ -11543,7 +11541,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>930.09429089369996</v>
       </c>
@@ -11575,7 +11573,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>1069.010750248</v>
       </c>
@@ -11607,7 +11605,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1228.67540994</v>
       </c>
@@ -11639,7 +11637,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1412.1871670989999</v>
       </c>
@@ -11671,7 +11669,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1623.107762053</v>
       </c>
@@ -11703,7 +11701,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1865.5309073870001</v>
       </c>
@@ -11735,7 +11733,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>2144.1617419260001</v>
       </c>
@@ -11767,7 +11765,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>2464.4081517660002</v>
       </c>
@@ -11799,7 +11797,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>2832.4857307819998</v>
       </c>
@@ -11831,7 +11829,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>3255.538417747</v>
       </c>
@@ -11863,7 +11861,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>3741.7771515119998</v>
       </c>
@@ -11895,7 +11893,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>4300.6392353580004</v>
       </c>
@@ -11927,7 +11925,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>4942.9715035890003</v>
       </c>
@@ -11959,7 +11957,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>5681.2408454099996</v>
       </c>
@@ -11991,7 +11989,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>6529.7761721099996</v>
       </c>
@@ -12023,7 +12021,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>7505.0465238249999</v>
       </c>
@@ -12055,7 +12053,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>8625.9807136060008</v>
       </c>
@@ -12087,7 +12085,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>9914.3347126869994</v>
       </c>
@@ -12119,7 +12117,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>11395.11390747</v>
       </c>
@@ -12151,7 +12149,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>13097.058423709999</v>
       </c>
@@ -12183,7 +12181,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>15053.20093743</v>
       </c>
@@ -12215,7 +12213,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>17301.50779906</v>
       </c>
@@ -12247,7 +12245,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>19885.6159142</v>
       </c>
@@ -12279,7 +12277,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>22855.67968293</v>
       </c>
@@ -12311,7 +12309,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>26269.34443583</v>
       </c>
@@ -12343,7 +12341,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>30192.865259819999</v>
       </c>
@@ -12375,7 +12373,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>34702.392928929999</v>
       </c>
@@ -12407,7 +12405,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>39885.451898359999</v>
       </c>
@@ -12439,7 +12437,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>45842.639047800003</v>
       </c>
@@ -12471,7 +12469,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>52689.576144760002</v>
       </c>
@@ -12503,7 +12501,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>60559.153922619997</v>
       </c>
@@ -12535,7 +12533,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>69604.111328350002</v>
       </c>
@@ -12567,7 +12565,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>80000</v>
       </c>
@@ -12612,24 +12610,24 @@
       <selection sqref="A1:K70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -12640,7 +12638,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -12651,7 +12649,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -12662,7 +12660,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -12673,7 +12671,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -12684,7 +12682,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>50</v>
       </c>
@@ -12695,7 +12693,7 @@
         <v>-140</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>80000</v>
       </c>
@@ -12706,7 +12704,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -12717,7 +12715,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -12728,7 +12726,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -12739,7 +12737,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -12750,7 +12748,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1000</v>
       </c>
@@ -12761,7 +12759,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -12793,7 +12791,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>50</v>
       </c>
@@ -12825,7 +12823,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>57.467869694219999</v>
       </c>
@@ -12857,7 +12855,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>66.051120943840004</v>
       </c>
@@ -12889,7 +12887,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>75.916344231159997</v>
       </c>
@@ -12921,7 +12919,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>87.255011558769993</v>
       </c>
@@ -12953,7 +12951,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>100.2871926885</v>
       </c>
@@ -12985,7 +12983,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>115.26582642850001</v>
       </c>
@@ -13017,7 +13015,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>132.4816298678</v>
       </c>
@@ -13049,7 +13047,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>152.26874084240001</v>
       </c>
@@ -13081,7 +13079,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>175.0112031447</v>
       </c>
@@ -13113,7 +13111,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>201.15042034699999</v>
       </c>
@@ -13145,7 +13143,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>231.1937229088</v>
       </c>
@@ -13177,7 +13175,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>265.72421484490002</v>
       </c>
@@ -13209,7 +13207,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>305.4120910661</v>
       </c>
@@ -13241,7 +13239,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>351.02764504850001</v>
       </c>
@@ -13273,7 +13271,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>403.4562192944</v>
       </c>
@@ -13305,7 +13303,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>463.71538875469997</v>
       </c>
@@ -13337,7 +13335,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>532.97471072320002</v>
       </c>
@@ -13369,7 +13367,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>612.57842452320006</v>
       </c>
@@ -13401,7 +13399,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>704.07154155980004</v>
       </c>
@@ -13433,7 +13431,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>809.22983211539997</v>
       </c>
@@ -13465,7 +13463,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>930.09429089369996</v>
       </c>
@@ -13497,7 +13495,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>1069.010750248</v>
       </c>
@@ -13529,7 +13527,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1228.67540994</v>
       </c>
@@ -13561,7 +13559,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1412.1871670989999</v>
       </c>
@@ -13593,7 +13591,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1623.107762053</v>
       </c>
@@ -13625,7 +13623,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1865.5309073870001</v>
       </c>
@@ -13657,7 +13655,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>2144.1617419260001</v>
       </c>
@@ -13689,7 +13687,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>2464.4081517660002</v>
       </c>
@@ -13721,7 +13719,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>2832.4857307819998</v>
       </c>
@@ -13753,7 +13751,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>3255.538417747</v>
       </c>
@@ -13785,7 +13783,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>3741.7771515119998</v>
       </c>
@@ -13817,7 +13815,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>4300.6392353580004</v>
       </c>
@@ -13849,7 +13847,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>4942.9715035890003</v>
       </c>
@@ -13881,7 +13879,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>5681.2408454099996</v>
       </c>
@@ -13913,7 +13911,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>6529.7761721099996</v>
       </c>
@@ -13945,7 +13943,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>7505.0465238249999</v>
       </c>
@@ -13977,7 +13975,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>8625.9807136060008</v>
       </c>
@@ -14009,7 +14007,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>9914.3347126869994</v>
       </c>
@@ -14041,7 +14039,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>11395.11390747</v>
       </c>
@@ -14073,7 +14071,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>13097.058423709999</v>
       </c>
@@ -14105,7 +14103,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>15053.20093743</v>
       </c>
@@ -14137,7 +14135,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>17301.50779906</v>
       </c>
@@ -14169,7 +14167,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>19885.6159142</v>
       </c>
@@ -14201,7 +14199,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>22855.67968293</v>
       </c>
@@ -14233,7 +14231,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>26269.34443583</v>
       </c>
@@ -14265,7 +14263,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>30192.865259819999</v>
       </c>
@@ -14297,7 +14295,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>34702.392928929999</v>
       </c>
@@ -14329,7 +14327,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>39885.451898359999</v>
       </c>
@@ -14361,7 +14359,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>45842.639047800003</v>
       </c>
@@ -14393,7 +14391,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>52689.576144760002</v>
       </c>
@@ -14425,7 +14423,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>60559.153922619997</v>
       </c>
@@ -14457,7 +14455,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>69604.111328350002</v>
       </c>
@@ -14489,7 +14487,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>80000</v>
       </c>
@@ -14534,24 +14532,24 @@
       <selection sqref="A1:K70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -14562,7 +14560,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -14573,7 +14571,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -14584,7 +14582,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -14595,7 +14593,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -14606,7 +14604,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>50</v>
       </c>
@@ -14617,7 +14615,7 @@
         <v>-140</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>80000</v>
       </c>
@@ -14628,7 +14626,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -14639,7 +14637,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -14650,7 +14648,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -14661,7 +14659,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -14672,7 +14670,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1000</v>
       </c>
@@ -14683,7 +14681,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -14715,7 +14713,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>50</v>
       </c>
@@ -14747,7 +14745,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>57.467869694219999</v>
       </c>
@@ -14779,7 +14777,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>66.051120943840004</v>
       </c>
@@ -14811,7 +14809,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>75.916344231159997</v>
       </c>
@@ -14843,7 +14841,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>87.255011558769993</v>
       </c>
@@ -14875,7 +14873,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>100.2871926885</v>
       </c>
@@ -14907,7 +14905,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>115.26582642850001</v>
       </c>
@@ -14939,7 +14937,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>132.4816298678</v>
       </c>
@@ -14971,7 +14969,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>152.26874084240001</v>
       </c>
@@ -15003,7 +15001,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>175.0112031447</v>
       </c>
@@ -15035,7 +15033,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>201.15042034699999</v>
       </c>
@@ -15067,7 +15065,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>231.1937229088</v>
       </c>
@@ -15099,7 +15097,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>265.72421484490002</v>
       </c>
@@ -15131,7 +15129,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>305.4120910661</v>
       </c>
@@ -15163,7 +15161,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>351.02764504850001</v>
       </c>
@@ -15195,7 +15193,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>403.4562192944</v>
       </c>
@@ -15227,7 +15225,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>463.71538875469997</v>
       </c>
@@ -15259,7 +15257,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>532.97471072320002</v>
       </c>
@@ -15291,7 +15289,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>612.57842452320006</v>
       </c>
@@ -15323,7 +15321,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>704.07154155980004</v>
       </c>
@@ -15355,7 +15353,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>809.22983211539997</v>
       </c>
@@ -15387,7 +15385,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>930.09429089369996</v>
       </c>
@@ -15419,7 +15417,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>1069.010750248</v>
       </c>
@@ -15451,7 +15449,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1228.67540994</v>
       </c>
@@ -15483,7 +15481,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1412.1871670989999</v>
       </c>
@@ -15515,7 +15513,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1623.107762053</v>
       </c>
@@ -15547,7 +15545,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1865.5309073870001</v>
       </c>
@@ -15579,7 +15577,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>2144.1617419260001</v>
       </c>
@@ -15611,7 +15609,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>2464.4081517660002</v>
       </c>
@@ -15643,7 +15641,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>2832.4857307819998</v>
       </c>
@@ -15675,7 +15673,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>3255.538417747</v>
       </c>
@@ -15707,7 +15705,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>3741.7771515119998</v>
       </c>
@@ -15739,7 +15737,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>4300.6392353580004</v>
       </c>
@@ -15771,7 +15769,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>4942.9715035890003</v>
       </c>
@@ -15803,7 +15801,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>5681.2408454099996</v>
       </c>
@@ -15835,7 +15833,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>6529.7761721099996</v>
       </c>
@@ -15867,7 +15865,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>7505.0465238249999</v>
       </c>
@@ -15899,7 +15897,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>8625.9807136060008</v>
       </c>
@@ -15931,7 +15929,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>9914.3347126869994</v>
       </c>
@@ -15963,7 +15961,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>11395.11390747</v>
       </c>
@@ -15995,7 +15993,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>13097.058423709999</v>
       </c>
@@ -16027,7 +16025,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>15053.20093743</v>
       </c>
@@ -16059,7 +16057,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>17301.50779906</v>
       </c>
@@ -16091,7 +16089,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>19885.6159142</v>
       </c>
@@ -16123,7 +16121,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>22855.67968293</v>
       </c>
@@ -16155,7 +16153,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>26269.34443583</v>
       </c>
@@ -16187,7 +16185,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>30192.865259819999</v>
       </c>
@@ -16219,7 +16217,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>34702.392928929999</v>
       </c>
@@ -16251,7 +16249,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>39885.451898359999</v>
       </c>
@@ -16283,7 +16281,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>45842.639047800003</v>
       </c>
@@ -16315,7 +16313,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>52689.576144760002</v>
       </c>
@@ -16347,7 +16345,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>60559.153922619997</v>
       </c>
@@ -16379,7 +16377,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>69604.111328350002</v>
       </c>
@@ -16411,7 +16409,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>80000</v>
       </c>
@@ -16456,24 +16454,24 @@
       <selection sqref="A1:K70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -16484,7 +16482,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -16495,7 +16493,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -16506,7 +16504,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -16517,7 +16515,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -16528,7 +16526,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>50</v>
       </c>
@@ -16539,7 +16537,7 @@
         <v>-140</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>80000</v>
       </c>
@@ -16550,7 +16548,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -16561,7 +16559,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -16572,7 +16570,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -16583,7 +16581,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -16594,7 +16592,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1000</v>
       </c>
@@ -16605,7 +16603,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -16637,7 +16635,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>50</v>
       </c>
@@ -16669,7 +16667,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>57.467869694219999</v>
       </c>
@@ -16701,7 +16699,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>66.051120943840004</v>
       </c>
@@ -16733,7 +16731,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>75.916344231159997</v>
       </c>
@@ -16765,7 +16763,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>87.255011558769993</v>
       </c>
@@ -16797,7 +16795,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>100.2871926885</v>
       </c>
@@ -16829,7 +16827,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>115.26582642850001</v>
       </c>
@@ -16861,7 +16859,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>132.4816298678</v>
       </c>
@@ -16893,7 +16891,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>152.26874084240001</v>
       </c>
@@ -16925,7 +16923,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>175.0112031447</v>
       </c>
@@ -16957,7 +16955,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>201.15042034699999</v>
       </c>
@@ -16989,7 +16987,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>231.1937229088</v>
       </c>
@@ -17021,7 +17019,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>265.72421484490002</v>
       </c>
@@ -17053,7 +17051,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>305.4120910661</v>
       </c>
@@ -17085,7 +17083,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>351.02764504850001</v>
       </c>
@@ -17117,7 +17115,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>403.4562192944</v>
       </c>
@@ -17149,7 +17147,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>463.71538875469997</v>
       </c>
@@ -17181,7 +17179,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>532.97471072320002</v>
       </c>
@@ -17213,7 +17211,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>612.57842452320006</v>
       </c>
@@ -17245,7 +17243,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>704.07154155980004</v>
       </c>
@@ -17277,7 +17275,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>809.22983211539997</v>
       </c>
@@ -17309,7 +17307,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>930.09429089369996</v>
       </c>
@@ -17341,7 +17339,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>1069.010750248</v>
       </c>
@@ -17373,7 +17371,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1228.67540994</v>
       </c>
@@ -17405,7 +17403,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1412.1871670989999</v>
       </c>
@@ -17437,7 +17435,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1623.107762053</v>
       </c>
@@ -17469,7 +17467,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1865.5309073870001</v>
       </c>
@@ -17501,7 +17499,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>2144.1617419260001</v>
       </c>
@@ -17533,7 +17531,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>2464.4081517660002</v>
       </c>
@@ -17565,7 +17563,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>2832.4857307819998</v>
       </c>
@@ -17597,7 +17595,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>3255.538417747</v>
       </c>
@@ -17629,7 +17627,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>3741.7771515119998</v>
       </c>
@@ -17661,7 +17659,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>4300.6392353580004</v>
       </c>
@@ -17693,7 +17691,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>4942.9715035890003</v>
       </c>
@@ -17725,7 +17723,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>5681.2408454099996</v>
       </c>
@@ -17757,7 +17755,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>6529.7761721099996</v>
       </c>
@@ -17789,7 +17787,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>7505.0465238249999</v>
       </c>
@@ -17821,7 +17819,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>8625.9807136060008</v>
       </c>
@@ -17853,7 +17851,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>9914.3347126869994</v>
       </c>
@@ -17885,7 +17883,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>11395.11390747</v>
       </c>
@@ -17917,7 +17915,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>13097.058423709999</v>
       </c>
@@ -17949,7 +17947,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>15053.20093743</v>
       </c>
@@ -17981,7 +17979,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>17301.50779906</v>
       </c>
@@ -18013,7 +18011,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>19885.6159142</v>
       </c>
@@ -18045,7 +18043,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>22855.67968293</v>
       </c>
@@ -18077,7 +18075,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>26269.34443583</v>
       </c>
@@ -18109,7 +18107,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>30192.865259819999</v>
       </c>
@@ -18141,7 +18139,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>34702.392928929999</v>
       </c>
@@ -18173,7 +18171,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>39885.451898359999</v>
       </c>
@@ -18205,7 +18203,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>45842.639047800003</v>
       </c>
@@ -18237,7 +18235,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>52689.576144760002</v>
       </c>
@@ -18269,7 +18267,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>60559.153922619997</v>
       </c>
@@ -18301,7 +18299,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>69604.111328350002</v>
       </c>
@@ -18333,7 +18331,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>80000</v>
       </c>
@@ -18378,24 +18376,24 @@
       <selection sqref="A1:K70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -18406,7 +18404,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -18417,7 +18415,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -18428,7 +18426,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -18439,7 +18437,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -18450,7 +18448,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>50</v>
       </c>
@@ -18461,7 +18459,7 @@
         <v>-140</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>80000</v>
       </c>
@@ -18472,7 +18470,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -18483,7 +18481,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -18494,7 +18492,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -18505,7 +18503,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -18516,7 +18514,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1000</v>
       </c>
@@ -18527,7 +18525,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -18559,7 +18557,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>50</v>
       </c>
@@ -18591,7 +18589,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>57.467869694219999</v>
       </c>
@@ -18623,7 +18621,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>66.051120943840004</v>
       </c>
@@ -18655,7 +18653,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>75.916344231159997</v>
       </c>
@@ -18687,7 +18685,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>87.255011558769993</v>
       </c>
@@ -18719,7 +18717,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>100.2871926885</v>
       </c>
@@ -18751,7 +18749,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>115.26582642850001</v>
       </c>
@@ -18783,7 +18781,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>132.4816298678</v>
       </c>
@@ -18815,7 +18813,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>152.26874084240001</v>
       </c>
@@ -18847,7 +18845,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>175.0112031447</v>
       </c>
@@ -18879,7 +18877,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>201.15042034699999</v>
       </c>
@@ -18911,7 +18909,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>231.1937229088</v>
       </c>
@@ -18943,7 +18941,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>265.72421484490002</v>
       </c>
@@ -18975,7 +18973,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>305.4120910661</v>
       </c>
@@ -19007,7 +19005,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>351.02764504850001</v>
       </c>
@@ -19039,7 +19037,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>403.4562192944</v>
       </c>
@@ -19071,7 +19069,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>463.71538875469997</v>
       </c>
@@ -19103,7 +19101,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>532.97471072320002</v>
       </c>
@@ -19135,7 +19133,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>612.57842452320006</v>
       </c>
@@ -19167,7 +19165,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>704.07154155980004</v>
       </c>
@@ -19199,7 +19197,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>809.22983211539997</v>
       </c>
@@ -19231,7 +19229,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>930.09429089369996</v>
       </c>
@@ -19263,7 +19261,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>1069.010750248</v>
       </c>
@@ -19295,7 +19293,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1228.67540994</v>
       </c>
@@ -19327,7 +19325,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1412.1871670989999</v>
       </c>
@@ -19359,7 +19357,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1623.107762053</v>
       </c>
@@ -19391,7 +19389,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1865.5309073870001</v>
       </c>
@@ -19423,7 +19421,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>2144.1617419260001</v>
       </c>
@@ -19455,7 +19453,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>2464.4081517660002</v>
       </c>
@@ -19487,7 +19485,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>2832.4857307819998</v>
       </c>
@@ -19519,7 +19517,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>3255.538417747</v>
       </c>
@@ -19551,7 +19549,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>3741.7771515119998</v>
       </c>
@@ -19583,7 +19581,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>4300.6392353580004</v>
       </c>
@@ -19615,7 +19613,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>4942.9715035890003</v>
       </c>
@@ -19647,7 +19645,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>5681.2408454099996</v>
       </c>
@@ -19679,7 +19677,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>6529.7761721099996</v>
       </c>
@@ -19711,7 +19709,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>7505.0465238249999</v>
       </c>
@@ -19743,7 +19741,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>8625.9807136060008</v>
       </c>
@@ -19775,7 +19773,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>9914.3347126869994</v>
       </c>
@@ -19807,7 +19805,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>11395.11390747</v>
       </c>
@@ -19839,7 +19837,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>13097.058423709999</v>
       </c>
@@ -19871,7 +19869,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>15053.20093743</v>
       </c>
@@ -19903,7 +19901,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>17301.50779906</v>
       </c>
@@ -19935,7 +19933,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>19885.6159142</v>
       </c>
@@ -19967,7 +19965,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>22855.67968293</v>
       </c>
@@ -19999,7 +19997,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>26269.34443583</v>
       </c>
@@ -20031,7 +20029,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>30192.865259819999</v>
       </c>
@@ -20063,7 +20061,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>34702.392928929999</v>
       </c>
@@ -20095,7 +20093,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>39885.451898359999</v>
       </c>
@@ -20127,7 +20125,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>45842.639047800003</v>
       </c>
@@ -20159,7 +20157,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>52689.576144760002</v>
       </c>
@@ -20191,7 +20189,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>60559.153922619997</v>
       </c>
@@ -20223,7 +20221,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>69604.111328350002</v>
       </c>
@@ -20255,7 +20253,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>80000</v>
       </c>
@@ -20300,24 +20298,24 @@
       <selection sqref="A1:K70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -20328,7 +20326,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -20339,7 +20337,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -20350,7 +20348,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -20361,7 +20359,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -20372,7 +20370,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>50</v>
       </c>
@@ -20383,7 +20381,7 @@
         <v>-140</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>80000</v>
       </c>
@@ -20394,7 +20392,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -20405,7 +20403,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -20416,7 +20414,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -20427,7 +20425,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -20438,7 +20436,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1000</v>
       </c>
@@ -20449,7 +20447,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -20481,7 +20479,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>50</v>
       </c>
@@ -20513,7 +20511,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>57.467869694219999</v>
       </c>
@@ -20545,7 +20543,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>66.051120943840004</v>
       </c>
@@ -20577,7 +20575,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>75.916344231159997</v>
       </c>
@@ -20609,7 +20607,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>87.255011558769993</v>
       </c>
@@ -20641,7 +20639,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>100.2871926885</v>
       </c>
@@ -20673,7 +20671,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>115.26582642850001</v>
       </c>
@@ -20705,7 +20703,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>132.4816298678</v>
       </c>
@@ -20737,7 +20735,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>152.26874084240001</v>
       </c>
@@ -20769,7 +20767,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>175.0112031447</v>
       </c>
@@ -20801,7 +20799,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>201.15042034699999</v>
       </c>
@@ -20833,7 +20831,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>231.1937229088</v>
       </c>
@@ -20865,7 +20863,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>265.72421484490002</v>
       </c>
@@ -20897,7 +20895,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>305.4120910661</v>
       </c>
@@ -20929,7 +20927,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>351.02764504850001</v>
       </c>
@@ -20961,7 +20959,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>403.4562192944</v>
       </c>
@@ -20993,7 +20991,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>463.71538875469997</v>
       </c>
@@ -21025,7 +21023,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>532.97471072320002</v>
       </c>
@@ -21057,7 +21055,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>612.57842452320006</v>
       </c>
@@ -21089,7 +21087,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>704.07154155980004</v>
       </c>
@@ -21121,7 +21119,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>809.22983211539997</v>
       </c>
@@ -21153,7 +21151,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>930.09429089369996</v>
       </c>
@@ -21185,7 +21183,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>1069.010750248</v>
       </c>
@@ -21217,7 +21215,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1228.67540994</v>
       </c>
@@ -21249,7 +21247,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1412.1871670989999</v>
       </c>
@@ -21281,7 +21279,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1623.107762053</v>
       </c>
@@ -21313,7 +21311,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1865.5309073870001</v>
       </c>
@@ -21345,7 +21343,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>2144.1617419260001</v>
       </c>
@@ -21377,7 +21375,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>2464.4081517660002</v>
       </c>
@@ -21409,7 +21407,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>2832.4857307819998</v>
       </c>
@@ -21441,7 +21439,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>3255.538417747</v>
       </c>
@@ -21473,7 +21471,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>3741.7771515119998</v>
       </c>
@@ -21505,7 +21503,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>4300.6392353580004</v>
       </c>
@@ -21537,7 +21535,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>4942.9715035890003</v>
       </c>
@@ -21569,7 +21567,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>5681.2408454099996</v>
       </c>
@@ -21601,7 +21599,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>6529.7761721099996</v>
       </c>
@@ -21633,7 +21631,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>7505.0465238249999</v>
       </c>
@@ -21665,7 +21663,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>8625.9807136060008</v>
       </c>
@@ -21697,7 +21695,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>9914.3347126869994</v>
       </c>
@@ -21729,7 +21727,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>11395.11390747</v>
       </c>
@@ -21761,7 +21759,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>13097.058423709999</v>
       </c>
@@ -21793,7 +21791,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>15053.20093743</v>
       </c>
@@ -21825,7 +21823,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>17301.50779906</v>
       </c>
@@ -21857,7 +21855,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>19885.6159142</v>
       </c>
@@ -21889,7 +21887,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>22855.67968293</v>
       </c>
@@ -21921,7 +21919,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>26269.34443583</v>
       </c>
@@ -21953,7 +21951,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>30192.865259819999</v>
       </c>
@@ -21985,7 +21983,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>34702.392928929999</v>
       </c>
@@ -22017,7 +22015,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>39885.451898359999</v>
       </c>
@@ -22049,7 +22047,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>45842.639047800003</v>
       </c>
@@ -22081,7 +22079,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>52689.576144760002</v>
       </c>
@@ -22113,7 +22111,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>60559.153922619997</v>
       </c>
@@ -22145,7 +22143,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>69604.111328350002</v>
       </c>
@@ -22177,7 +22175,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>80000</v>
       </c>
@@ -22222,24 +22220,24 @@
       <selection sqref="A1:K70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -22250,7 +22248,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -22261,7 +22259,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -22272,7 +22270,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -22283,7 +22281,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -22294,7 +22292,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>50</v>
       </c>
@@ -22305,7 +22303,7 @@
         <v>-140</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>80000</v>
       </c>
@@ -22316,7 +22314,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -22327,7 +22325,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -22338,7 +22336,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -22349,7 +22347,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -22360,7 +22358,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1000</v>
       </c>
@@ -22371,7 +22369,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -22403,7 +22401,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>50</v>
       </c>
@@ -22435,7 +22433,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>57.467869694219999</v>
       </c>
@@ -22467,7 +22465,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>66.051120943840004</v>
       </c>
@@ -22499,7 +22497,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>75.916344231159997</v>
       </c>
@@ -22531,7 +22529,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>87.255011558769993</v>
       </c>
@@ -22563,7 +22561,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>100.2871926885</v>
       </c>
@@ -22595,7 +22593,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>115.26582642850001</v>
       </c>
@@ -22627,7 +22625,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>132.4816298678</v>
       </c>
@@ -22659,7 +22657,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>152.26874084240001</v>
       </c>
@@ -22691,7 +22689,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>175.0112031447</v>
       </c>
@@ -22723,7 +22721,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>201.15042034699999</v>
       </c>
@@ -22755,7 +22753,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>231.1937229088</v>
       </c>
@@ -22787,7 +22785,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>265.72421484490002</v>
       </c>
@@ -22819,7 +22817,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>305.4120910661</v>
       </c>
@@ -22851,7 +22849,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>351.02764504850001</v>
       </c>
@@ -22883,7 +22881,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>403.4562192944</v>
       </c>
@@ -22915,7 +22913,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>463.71538875469997</v>
       </c>
@@ -22947,7 +22945,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>532.97471072320002</v>
       </c>
@@ -22979,7 +22977,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>612.57842452320006</v>
       </c>
@@ -23011,7 +23009,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>704.07154155980004</v>
       </c>
@@ -23043,7 +23041,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>809.22983211539997</v>
       </c>
@@ -23075,7 +23073,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>930.09429089369996</v>
       </c>
@@ -23107,7 +23105,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>1069.010750248</v>
       </c>
@@ -23139,7 +23137,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1228.67540994</v>
       </c>
@@ -23171,7 +23169,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1412.1871670989999</v>
       </c>
@@ -23203,7 +23201,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1623.107762053</v>
       </c>
@@ -23235,7 +23233,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1865.5309073870001</v>
       </c>
@@ -23267,7 +23265,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>2144.1617419260001</v>
       </c>
@@ -23299,7 +23297,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>2464.4081517660002</v>
       </c>
@@ -23331,7 +23329,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>2832.4857307819998</v>
       </c>
@@ -23363,7 +23361,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>3255.538417747</v>
       </c>
@@ -23395,7 +23393,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>3741.7771515119998</v>
       </c>
@@ -23427,7 +23425,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>4300.6392353580004</v>
       </c>
@@ -23459,7 +23457,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>4942.9715035890003</v>
       </c>
@@ -23491,7 +23489,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>5681.2408454099996</v>
       </c>
@@ -23523,7 +23521,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>6529.7761721099996</v>
       </c>
@@ -23555,7 +23553,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>7505.0465238249999</v>
       </c>
@@ -23587,7 +23585,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>8625.9807136060008</v>
       </c>
@@ -23619,7 +23617,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>9914.3347126869994</v>
       </c>
@@ -23651,7 +23649,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>11395.11390747</v>
       </c>
@@ -23683,7 +23681,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>13097.058423709999</v>
       </c>
@@ -23715,7 +23713,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>15053.20093743</v>
       </c>
@@ -23747,7 +23745,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>17301.50779906</v>
       </c>
@@ -23779,7 +23777,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>19885.6159142</v>
       </c>
@@ -23811,7 +23809,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>22855.67968293</v>
       </c>
@@ -23843,7 +23841,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>26269.34443583</v>
       </c>
@@ -23875,7 +23873,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>30192.865259819999</v>
       </c>
@@ -23907,7 +23905,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>34702.392928929999</v>
       </c>
@@ -23939,7 +23937,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>39885.451898359999</v>
       </c>
@@ -23971,7 +23969,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>45842.639047800003</v>
       </c>
@@ -24003,7 +24001,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>52689.576144760002</v>
       </c>
@@ -24035,7 +24033,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>60559.153922619997</v>
       </c>
@@ -24067,7 +24065,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>69604.111328350002</v>
       </c>
@@ -24099,7 +24097,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>80000</v>
       </c>
@@ -24144,24 +24142,24 @@
       <selection sqref="A1:K70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -24172,7 +24170,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -24183,7 +24181,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -24194,7 +24192,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -24205,7 +24203,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -24216,7 +24214,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>50</v>
       </c>
@@ -24227,7 +24225,7 @@
         <v>-140</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>80000</v>
       </c>
@@ -24238,7 +24236,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -24249,7 +24247,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -24260,7 +24258,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -24271,7 +24269,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -24282,7 +24280,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1000</v>
       </c>
@@ -24293,7 +24291,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -24325,7 +24323,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>50</v>
       </c>
@@ -24357,7 +24355,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>57.467869694219999</v>
       </c>
@@ -24389,7 +24387,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>66.051120943840004</v>
       </c>
@@ -24421,7 +24419,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>75.916344231159997</v>
       </c>
@@ -24453,7 +24451,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>87.255011558769993</v>
       </c>
@@ -24485,7 +24483,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>100.2871926885</v>
       </c>
@@ -24517,7 +24515,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>115.26582642850001</v>
       </c>
@@ -24549,7 +24547,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>132.4816298678</v>
       </c>
@@ -24581,7 +24579,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>152.26874084240001</v>
       </c>
@@ -24613,7 +24611,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>175.0112031447</v>
       </c>
@@ -24645,7 +24643,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>201.15042034699999</v>
       </c>
@@ -24677,7 +24675,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>231.1937229088</v>
       </c>
@@ -24709,7 +24707,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>265.72421484490002</v>
       </c>
@@ -24741,7 +24739,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>305.4120910661</v>
       </c>
@@ -24773,7 +24771,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>351.02764504850001</v>
       </c>
@@ -24805,7 +24803,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>403.4562192944</v>
       </c>
@@ -24837,7 +24835,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>463.71538875469997</v>
       </c>
@@ -24869,7 +24867,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>532.97471072320002</v>
       </c>
@@ -24901,7 +24899,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>612.57842452320006</v>
       </c>
@@ -24933,7 +24931,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>704.07154155980004</v>
       </c>
@@ -24965,7 +24963,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>809.22983211539997</v>
       </c>
@@ -24997,7 +24995,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>930.09429089369996</v>
       </c>
@@ -25029,7 +25027,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>1069.010750248</v>
       </c>
@@ -25061,7 +25059,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1228.67540994</v>
       </c>
@@ -25093,7 +25091,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1412.1871670989999</v>
       </c>
@@ -25125,7 +25123,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1623.107762053</v>
       </c>
@@ -25157,7 +25155,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1865.5309073870001</v>
       </c>
@@ -25189,7 +25187,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>2144.1617419260001</v>
       </c>
@@ -25221,7 +25219,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>2464.4081517660002</v>
       </c>
@@ -25253,7 +25251,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>2832.4857307819998</v>
       </c>
@@ -25285,7 +25283,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>3255.538417747</v>
       </c>
@@ -25317,7 +25315,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>3741.7771515119998</v>
       </c>
@@ -25349,7 +25347,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>4300.6392353580004</v>
       </c>
@@ -25381,7 +25379,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>4942.9715035890003</v>
       </c>
@@ -25413,7 +25411,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>5681.2408454099996</v>
       </c>
@@ -25445,7 +25443,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>6529.7761721099996</v>
       </c>
@@ -25477,7 +25475,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>7505.0465238249999</v>
       </c>
@@ -25509,7 +25507,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>8625.9807136060008</v>
       </c>
@@ -25541,7 +25539,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>9914.3347126869994</v>
       </c>
@@ -25573,7 +25571,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>11395.11390747</v>
       </c>
@@ -25605,7 +25603,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>13097.058423709999</v>
       </c>
@@ -25637,7 +25635,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>15053.20093743</v>
       </c>
@@ -25669,7 +25667,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>17301.50779906</v>
       </c>
@@ -25701,7 +25699,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>19885.6159142</v>
       </c>
@@ -25733,7 +25731,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>22855.67968293</v>
       </c>
@@ -25765,7 +25763,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>26269.34443583</v>
       </c>
@@ -25797,7 +25795,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>30192.865259819999</v>
       </c>
@@ -25829,7 +25827,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>34702.392928929999</v>
       </c>
@@ -25861,7 +25859,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>39885.451898359999</v>
       </c>
@@ -25893,7 +25891,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>45842.639047800003</v>
       </c>
@@ -25925,7 +25923,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>52689.576144760002</v>
       </c>
@@ -25957,7 +25955,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>60559.153922619997</v>
       </c>
@@ -25989,7 +25987,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>69604.111328350002</v>
       </c>
@@ -26021,7 +26019,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>80000</v>
       </c>
@@ -26066,24 +26064,24 @@
       <selection sqref="A1:K70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -26094,7 +26092,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -26105,7 +26103,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -26116,7 +26114,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -26127,7 +26125,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -26138,7 +26136,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>50</v>
       </c>
@@ -26149,7 +26147,7 @@
         <v>-140</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>80000</v>
       </c>
@@ -26160,7 +26158,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -26171,7 +26169,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -26182,7 +26180,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -26193,7 +26191,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -26204,7 +26202,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1000</v>
       </c>
@@ -26215,7 +26213,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -26247,7 +26245,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>50</v>
       </c>
@@ -26279,7 +26277,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>57.467869694219999</v>
       </c>
@@ -26311,7 +26309,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>66.051120943840004</v>
       </c>
@@ -26343,7 +26341,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>75.916344231159997</v>
       </c>
@@ -26375,7 +26373,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>87.255011558769993</v>
       </c>
@@ -26407,7 +26405,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>100.2871926885</v>
       </c>
@@ -26439,7 +26437,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>115.26582642850001</v>
       </c>
@@ -26471,7 +26469,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>132.4816298678</v>
       </c>
@@ -26503,7 +26501,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>152.26874084240001</v>
       </c>
@@ -26535,7 +26533,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>175.0112031447</v>
       </c>
@@ -26567,7 +26565,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>201.15042034699999</v>
       </c>
@@ -26599,7 +26597,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>231.1937229088</v>
       </c>
@@ -26631,7 +26629,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>265.72421484490002</v>
       </c>
@@ -26663,7 +26661,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>305.4120910661</v>
       </c>
@@ -26695,7 +26693,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>351.02764504850001</v>
       </c>
@@ -26727,7 +26725,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>403.4562192944</v>
       </c>
@@ -26759,7 +26757,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>463.71538875469997</v>
       </c>
@@ -26791,7 +26789,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>532.97471072320002</v>
       </c>
@@ -26823,7 +26821,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>612.57842452320006</v>
       </c>
@@ -26855,7 +26853,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>704.07154155980004</v>
       </c>
@@ -26887,7 +26885,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>809.22983211539997</v>
       </c>
@@ -26919,7 +26917,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>930.09429089369996</v>
       </c>
@@ -26951,7 +26949,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>1069.010750248</v>
       </c>
@@ -26983,7 +26981,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1228.67540994</v>
       </c>
@@ -27015,7 +27013,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1412.1871670989999</v>
       </c>
@@ -27047,7 +27045,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1623.107762053</v>
       </c>
@@ -27079,7 +27077,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1865.5309073870001</v>
       </c>
@@ -27111,7 +27109,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>2144.1617419260001</v>
       </c>
@@ -27143,7 +27141,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>2464.4081517660002</v>
       </c>
@@ -27175,7 +27173,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>2832.4857307819998</v>
       </c>
@@ -27207,7 +27205,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>3255.538417747</v>
       </c>
@@ -27239,7 +27237,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>3741.7771515119998</v>
       </c>
@@ -27271,7 +27269,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>4300.6392353580004</v>
       </c>
@@ -27303,7 +27301,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>4942.9715035890003</v>
       </c>
@@ -27335,7 +27333,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>5681.2408454099996</v>
       </c>
@@ -27367,7 +27365,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>6529.7761721099996</v>
       </c>
@@ -27399,7 +27397,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>7505.0465238249999</v>
       </c>
@@ -27431,7 +27429,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>8625.9807136060008</v>
       </c>
@@ -27463,7 +27461,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>9914.3347126869994</v>
       </c>
@@ -27495,7 +27493,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>11395.11390747</v>
       </c>
@@ -27527,7 +27525,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>13097.058423709999</v>
       </c>
@@ -27559,7 +27557,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>15053.20093743</v>
       </c>
@@ -27591,7 +27589,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>17301.50779906</v>
       </c>
@@ -27623,7 +27621,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>19885.6159142</v>
       </c>
@@ -27655,7 +27653,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>22855.67968293</v>
       </c>
@@ -27687,7 +27685,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>26269.34443583</v>
       </c>
@@ -27719,7 +27717,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>30192.865259819999</v>
       </c>
@@ -27751,7 +27749,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>34702.392928929999</v>
       </c>
@@ -27783,7 +27781,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>39885.451898359999</v>
       </c>
@@ -27815,7 +27813,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>45842.639047800003</v>
       </c>
@@ -27847,7 +27845,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>52689.576144760002</v>
       </c>
@@ -27879,7 +27877,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>60559.153922619997</v>
       </c>
@@ -27911,7 +27909,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>69604.111328350002</v>
       </c>
@@ -27943,7 +27941,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>80000</v>
       </c>
@@ -27988,24 +27986,24 @@
       <selection activeCell="A17" sqref="A17:B70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -28016,7 +28014,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -28027,7 +28025,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -28038,7 +28036,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -28049,7 +28047,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -28060,7 +28058,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>50</v>
       </c>
@@ -28071,7 +28069,7 @@
         <v>-140</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>80000</v>
       </c>
@@ -28082,7 +28080,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -28093,7 +28091,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -28104,7 +28102,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -28115,7 +28113,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -28126,7 +28124,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1000</v>
       </c>
@@ -28137,7 +28135,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -28169,7 +28167,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>50</v>
       </c>
@@ -28201,7 +28199,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>57.467869694219999</v>
       </c>
@@ -28233,7 +28231,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>66.051120943840004</v>
       </c>
@@ -28265,7 +28263,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>75.916344231159997</v>
       </c>
@@ -28297,7 +28295,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>87.255011558769993</v>
       </c>
@@ -28329,7 +28327,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>100.2871926885</v>
       </c>
@@ -28361,7 +28359,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>115.26582642850001</v>
       </c>
@@ -28393,7 +28391,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>132.4816298678</v>
       </c>
@@ -28425,7 +28423,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>152.26874084240001</v>
       </c>
@@ -28457,7 +28455,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>175.0112031447</v>
       </c>
@@ -28489,7 +28487,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>201.15042034699999</v>
       </c>
@@ -28521,7 +28519,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>231.1937229088</v>
       </c>
@@ -28553,7 +28551,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>265.72421484490002</v>
       </c>
@@ -28585,7 +28583,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>305.4120910661</v>
       </c>
@@ -28617,7 +28615,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>351.02764504850001</v>
       </c>
@@ -28649,7 +28647,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>403.4562192944</v>
       </c>
@@ -28681,7 +28679,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>463.71538875469997</v>
       </c>
@@ -28713,7 +28711,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>532.97471072320002</v>
       </c>
@@ -28745,7 +28743,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>612.57842452320006</v>
       </c>
@@ -28777,7 +28775,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>704.07154155980004</v>
       </c>
@@ -28809,7 +28807,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>809.22983211539997</v>
       </c>
@@ -28841,7 +28839,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>930.09429089369996</v>
       </c>
@@ -28873,7 +28871,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>1069.010750248</v>
       </c>
@@ -28905,7 +28903,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1228.67540994</v>
       </c>
@@ -28937,7 +28935,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1412.1871670989999</v>
       </c>
@@ -28969,7 +28967,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1623.107762053</v>
       </c>
@@ -29001,7 +28999,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1865.5309073870001</v>
       </c>
@@ -29033,7 +29031,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>2144.1617419260001</v>
       </c>
@@ -29065,7 +29063,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>2464.4081517660002</v>
       </c>
@@ -29097,7 +29095,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>2832.4857307819998</v>
       </c>
@@ -29129,7 +29127,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>3255.538417747</v>
       </c>
@@ -29161,7 +29159,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>3741.7771515119998</v>
       </c>
@@ -29193,7 +29191,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>4300.6392353580004</v>
       </c>
@@ -29225,7 +29223,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>4942.9715035890003</v>
       </c>
@@ -29257,7 +29255,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>5681.2408454099996</v>
       </c>
@@ -29289,7 +29287,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>6529.7761721099996</v>
       </c>
@@ -29321,7 +29319,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>7505.0465238249999</v>
       </c>
@@ -29353,7 +29351,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>8625.9807136060008</v>
       </c>
@@ -29385,7 +29383,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>9914.3347126869994</v>
       </c>
@@ -29417,7 +29415,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>11395.11390747</v>
       </c>
@@ -29449,7 +29447,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>13097.058423709999</v>
       </c>
@@ -29481,7 +29479,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>15053.20093743</v>
       </c>
@@ -29513,7 +29511,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>17301.50779906</v>
       </c>
@@ -29545,7 +29543,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>19885.6159142</v>
       </c>
@@ -29577,7 +29575,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>22855.67968293</v>
       </c>
@@ -29609,7 +29607,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>26269.34443583</v>
       </c>
@@ -29641,7 +29639,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>30192.865259819999</v>
       </c>
@@ -29673,7 +29671,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>34702.392928929999</v>
       </c>
@@ -29705,7 +29703,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>39885.451898359999</v>
       </c>
@@ -29737,7 +29735,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>45842.639047800003</v>
       </c>
@@ -29769,7 +29767,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>52689.576144760002</v>
       </c>
@@ -29801,7 +29799,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>60559.153922619997</v>
       </c>
@@ -29833,7 +29831,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>69604.111328350002</v>
       </c>
@@ -29865,7 +29863,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>80000</v>
       </c>
@@ -29910,24 +29908,24 @@
       <selection sqref="A1:K70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -29938,7 +29936,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -29949,7 +29947,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -29960,7 +29958,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -29971,7 +29969,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -29982,7 +29980,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>50</v>
       </c>
@@ -29993,7 +29991,7 @@
         <v>-140</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>80000</v>
       </c>
@@ -30004,7 +30002,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -30015,7 +30013,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -30026,7 +30024,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -30037,7 +30035,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -30048,7 +30046,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1000</v>
       </c>
@@ -30059,7 +30057,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -30091,7 +30089,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>50</v>
       </c>
@@ -30123,7 +30121,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>57.467869694219999</v>
       </c>
@@ -30155,7 +30153,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>66.051120943840004</v>
       </c>
@@ -30187,7 +30185,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>75.916344231159997</v>
       </c>
@@ -30219,7 +30217,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>87.255011558769993</v>
       </c>
@@ -30251,7 +30249,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>100.2871926885</v>
       </c>
@@ -30283,7 +30281,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>115.26582642850001</v>
       </c>
@@ -30315,7 +30313,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>132.4816298678</v>
       </c>
@@ -30347,7 +30345,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>152.26874084240001</v>
       </c>
@@ -30379,7 +30377,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>175.0112031447</v>
       </c>
@@ -30411,7 +30409,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>201.15042034699999</v>
       </c>
@@ -30443,7 +30441,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>231.1937229088</v>
       </c>
@@ -30475,7 +30473,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>265.72421484490002</v>
       </c>
@@ -30507,7 +30505,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>305.4120910661</v>
       </c>
@@ -30539,7 +30537,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>351.02764504850001</v>
       </c>
@@ -30571,7 +30569,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>403.4562192944</v>
       </c>
@@ -30603,7 +30601,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>463.71538875469997</v>
       </c>
@@ -30635,7 +30633,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>532.97471072320002</v>
       </c>
@@ -30667,7 +30665,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>612.57842452320006</v>
       </c>
@@ -30699,7 +30697,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>704.07154155980004</v>
       </c>
@@ -30731,7 +30729,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>809.22983211539997</v>
       </c>
@@ -30763,7 +30761,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>930.09429089369996</v>
       </c>
@@ -30795,7 +30793,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>1069.010750248</v>
       </c>
@@ -30827,7 +30825,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1228.67540994</v>
       </c>
@@ -30859,7 +30857,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1412.1871670989999</v>
       </c>
@@ -30891,7 +30889,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1623.107762053</v>
       </c>
@@ -30923,7 +30921,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1865.5309073870001</v>
       </c>
@@ -30955,7 +30953,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>2144.1617419260001</v>
       </c>
@@ -30987,7 +30985,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>2464.4081517660002</v>
       </c>
@@ -31019,7 +31017,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>2832.4857307819998</v>
       </c>
@@ -31051,7 +31049,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>3255.538417747</v>
       </c>
@@ -31083,7 +31081,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>3741.7771515119998</v>
       </c>
@@ -31115,7 +31113,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>4300.6392353580004</v>
       </c>
@@ -31147,7 +31145,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>4942.9715035890003</v>
       </c>
@@ -31179,7 +31177,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>5681.2408454099996</v>
       </c>
@@ -31211,7 +31209,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>6529.7761721099996</v>
       </c>
@@ -31243,7 +31241,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>7505.0465238249999</v>
       </c>
@@ -31275,7 +31273,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>8625.9807136060008</v>
       </c>
@@ -31307,7 +31305,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>9914.3347126869994</v>
       </c>
@@ -31339,7 +31337,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>11395.11390747</v>
       </c>
@@ -31371,7 +31369,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>13097.058423709999</v>
       </c>
@@ -31403,7 +31401,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>15053.20093743</v>
       </c>
@@ -31435,7 +31433,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>17301.50779906</v>
       </c>
@@ -31467,7 +31465,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>19885.6159142</v>
       </c>
@@ -31499,7 +31497,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>22855.67968293</v>
       </c>
@@ -31531,7 +31529,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>26269.34443583</v>
       </c>
@@ -31563,7 +31561,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>30192.865259819999</v>
       </c>
@@ -31595,7 +31593,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>34702.392928929999</v>
       </c>
@@ -31627,7 +31625,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>39885.451898359999</v>
       </c>
@@ -31659,7 +31657,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>45842.639047800003</v>
       </c>
@@ -31691,7 +31689,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>52689.576144760002</v>
       </c>
@@ -31723,7 +31721,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>60559.153922619997</v>
       </c>
@@ -31755,7 +31753,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>69604.111328350002</v>
       </c>
@@ -31787,7 +31785,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>80000</v>
       </c>
@@ -31832,24 +31830,24 @@
       <selection sqref="A1:K70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -31860,7 +31858,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -31871,7 +31869,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -31882,7 +31880,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -31893,7 +31891,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -31904,7 +31902,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>50</v>
       </c>
@@ -31915,7 +31913,7 @@
         <v>-140</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>80000</v>
       </c>
@@ -31926,7 +31924,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -31937,7 +31935,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -31948,7 +31946,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -31959,7 +31957,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -31970,7 +31968,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1000</v>
       </c>
@@ -31981,7 +31979,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -32013,7 +32011,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>50</v>
       </c>
@@ -32045,7 +32043,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>57.467869694219999</v>
       </c>
@@ -32077,7 +32075,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>66.051120943840004</v>
       </c>
@@ -32109,7 +32107,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>75.916344231159997</v>
       </c>
@@ -32141,7 +32139,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>87.255011558769993</v>
       </c>
@@ -32173,7 +32171,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>100.2871926885</v>
       </c>
@@ -32205,7 +32203,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>115.26582642850001</v>
       </c>
@@ -32237,7 +32235,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>132.4816298678</v>
       </c>
@@ -32269,7 +32267,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>152.26874084240001</v>
       </c>
@@ -32301,7 +32299,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>175.0112031447</v>
       </c>
@@ -32333,7 +32331,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>201.15042034699999</v>
       </c>
@@ -32365,7 +32363,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>231.1937229088</v>
       </c>
@@ -32397,7 +32395,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>265.72421484490002</v>
       </c>
@@ -32429,7 +32427,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>305.4120910661</v>
       </c>
@@ -32461,7 +32459,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>351.02764504850001</v>
       </c>
@@ -32493,7 +32491,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>403.4562192944</v>
       </c>
@@ -32525,7 +32523,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>463.71538875469997</v>
       </c>
@@ -32557,7 +32555,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>532.97471072320002</v>
       </c>
@@ -32589,7 +32587,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>612.57842452320006</v>
       </c>
@@ -32621,7 +32619,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>704.07154155980004</v>
       </c>
@@ -32653,7 +32651,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>809.22983211539997</v>
       </c>
@@ -32685,7 +32683,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>930.09429089369996</v>
       </c>
@@ -32717,7 +32715,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>1069.010750248</v>
       </c>
@@ -32749,7 +32747,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1228.67540994</v>
       </c>
@@ -32781,7 +32779,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1412.1871670989999</v>
       </c>
@@ -32813,7 +32811,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1623.107762053</v>
       </c>
@@ -32845,7 +32843,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1865.5309073870001</v>
       </c>
@@ -32877,7 +32875,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>2144.1617419260001</v>
       </c>
@@ -32909,7 +32907,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>2464.4081517660002</v>
       </c>
@@ -32941,7 +32939,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>2832.4857307819998</v>
       </c>
@@ -32973,7 +32971,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>3255.538417747</v>
       </c>
@@ -33005,7 +33003,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>3741.7771515119998</v>
       </c>
@@ -33037,7 +33035,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>4300.6392353580004</v>
       </c>
@@ -33069,7 +33067,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>4942.9715035890003</v>
       </c>
@@ -33101,7 +33099,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>5681.2408454099996</v>
       </c>
@@ -33133,7 +33131,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>6529.7761721099996</v>
       </c>
@@ -33165,7 +33163,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>7505.0465238249999</v>
       </c>
@@ -33197,7 +33195,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>8625.9807136060008</v>
       </c>
@@ -33229,7 +33227,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>9914.3347126869994</v>
       </c>
@@ -33261,7 +33259,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>11395.11390747</v>
       </c>
@@ -33293,7 +33291,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>13097.058423709999</v>
       </c>
@@ -33325,7 +33323,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>15053.20093743</v>
       </c>
@@ -33357,7 +33355,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>17301.50779906</v>
       </c>
@@ -33389,7 +33387,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>19885.6159142</v>
       </c>
@@ -33421,7 +33419,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>22855.67968293</v>
       </c>
@@ -33453,7 +33451,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>26269.34443583</v>
       </c>
@@ -33485,7 +33483,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>30192.865259819999</v>
       </c>
@@ -33517,7 +33515,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>34702.392928929999</v>
       </c>
@@ -33549,7 +33547,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>39885.451898359999</v>
       </c>
@@ -33581,7 +33579,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>45842.639047800003</v>
       </c>
@@ -33613,7 +33611,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>52689.576144760002</v>
       </c>
@@ -33645,7 +33643,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>60559.153922619997</v>
       </c>
@@ -33677,7 +33675,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>69604.111328350002</v>
       </c>
@@ -33709,7 +33707,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>80000</v>
       </c>
@@ -33754,24 +33752,24 @@
       <selection sqref="A1:K70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -33782,7 +33780,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -33793,7 +33791,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -33804,7 +33802,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -33815,7 +33813,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -33826,7 +33824,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>50</v>
       </c>
@@ -33837,7 +33835,7 @@
         <v>-140</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>80000</v>
       </c>
@@ -33848,7 +33846,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -33859,7 +33857,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -33870,7 +33868,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -33881,7 +33879,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -33892,7 +33890,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1000</v>
       </c>
@@ -33903,7 +33901,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -33935,7 +33933,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>50</v>
       </c>
@@ -33967,7 +33965,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>57.467869694219999</v>
       </c>
@@ -33999,7 +33997,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>66.051120943840004</v>
       </c>
@@ -34031,7 +34029,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>75.916344231159997</v>
       </c>
@@ -34063,7 +34061,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>87.255011558769993</v>
       </c>
@@ -34095,7 +34093,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>100.2871926885</v>
       </c>
@@ -34127,7 +34125,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>115.26582642850001</v>
       </c>
@@ -34159,7 +34157,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>132.4816298678</v>
       </c>
@@ -34191,7 +34189,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>152.26874084240001</v>
       </c>
@@ -34223,7 +34221,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>175.0112031447</v>
       </c>
@@ -34255,7 +34253,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>201.15042034699999</v>
       </c>
@@ -34287,7 +34285,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>231.1937229088</v>
       </c>
@@ -34319,7 +34317,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>265.72421484490002</v>
       </c>
@@ -34351,7 +34349,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>305.4120910661</v>
       </c>
@@ -34383,7 +34381,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>351.02764504850001</v>
       </c>
@@ -34415,7 +34413,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>403.4562192944</v>
       </c>
@@ -34447,7 +34445,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>463.71538875469997</v>
       </c>
@@ -34479,7 +34477,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>532.97471072320002</v>
       </c>
@@ -34511,7 +34509,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>612.57842452320006</v>
       </c>
@@ -34543,7 +34541,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>704.07154155980004</v>
       </c>
@@ -34575,7 +34573,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>809.22983211539997</v>
       </c>
@@ -34607,7 +34605,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>930.09429089369996</v>
       </c>
@@ -34639,7 +34637,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>1069.010750248</v>
       </c>
@@ -34671,7 +34669,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1228.67540994</v>
       </c>
@@ -34703,7 +34701,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1412.1871670989999</v>
       </c>
@@ -34735,7 +34733,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1623.107762053</v>
       </c>
@@ -34767,7 +34765,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1865.5309073870001</v>
       </c>
@@ -34799,7 +34797,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>2144.1617419260001</v>
       </c>
@@ -34831,7 +34829,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>2464.4081517660002</v>
       </c>
@@ -34863,7 +34861,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>2832.4857307819998</v>
       </c>
@@ -34895,7 +34893,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>3255.538417747</v>
       </c>
@@ -34927,7 +34925,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>3741.7771515119998</v>
       </c>
@@ -34959,7 +34957,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>4300.6392353580004</v>
       </c>
@@ -34991,7 +34989,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>4942.9715035890003</v>
       </c>
@@ -35023,7 +35021,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>5681.2408454099996</v>
       </c>
@@ -35055,7 +35053,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>6529.7761721099996</v>
       </c>
@@ -35087,7 +35085,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>7505.0465238249999</v>
       </c>
@@ -35119,7 +35117,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>8625.9807136060008</v>
       </c>
@@ -35151,7 +35149,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>9914.3347126869994</v>
       </c>
@@ -35183,7 +35181,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>11395.11390747</v>
       </c>
@@ -35215,7 +35213,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>13097.058423709999</v>
       </c>
@@ -35247,7 +35245,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>15053.20093743</v>
       </c>
@@ -35279,7 +35277,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>17301.50779906</v>
       </c>
@@ -35311,7 +35309,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>19885.6159142</v>
       </c>
@@ -35343,7 +35341,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>22855.67968293</v>
       </c>
@@ -35375,7 +35373,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>26269.34443583</v>
       </c>
@@ -35407,7 +35405,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>30192.865259819999</v>
       </c>
@@ -35439,7 +35437,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>34702.392928929999</v>
       </c>
@@ -35471,7 +35469,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>39885.451898359999</v>
       </c>
@@ -35503,7 +35501,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>45842.639047800003</v>
       </c>
@@ -35535,7 +35533,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>52689.576144760002</v>
       </c>
@@ -35567,7 +35565,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>60559.153922619997</v>
       </c>
@@ -35599,7 +35597,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>69604.111328350002</v>
       </c>
@@ -35631,7 +35629,7 @@
         <v>3.402823466385E+38</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>80000</v>
       </c>
